--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.1.0.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\OneDrive - everis\Projects\GROW\ESPD-EDM-v2.0.3\cl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\espd\ESPD-EDM\docs\src\main\asciidoc\dist\cl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15376,9 +15376,7 @@
   <sheetPr codeName="Hoja12"/>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -21500,9 +21498,7 @@
   <sheetPr codeName="Hoja19"/>
   <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -22410,7 +22406,7 @@
   </sheetPr>
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -25902,7 +25898,7 @@
   <sheetPr codeName="Hoja20"/>
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28335,7 +28331,7 @@
   <sheetPr codeName="Hoja21"/>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -37152,9 +37148,7 @@
   <sheetPr codeName="Hoja25"/>
   <dimension ref="A1:AX26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -41157,7 +41151,7 @@
   <sheetPr codeName="Hoja27"/>
   <dimension ref="A1:AX141"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -56288,9 +56282,7 @@
   <sheetPr codeName="Hoja34"/>
   <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -57821,7 +57813,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:AX98"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -63167,7 +63159,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:AX44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -66038,7 +66030,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -68084,7 +68076,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -69337,7 +69329,7 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -70090,7 +70082,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.1.0.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPDv2.1.0\docs\src\main\asciidoc\dist\cl\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD\docs\src\main\asciidoc\dist\cl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11330" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11279" uniqueCount="442">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1376,6 +1376,12 @@
   <si>
     <t>See the Publications Office of the European Union web site https://simap.ted.europa.eu/cpv</t>
   </si>
+  <si>
+    <t>Lot Ids</t>
+  </si>
+  <si>
+    <t>[List of IDENTIFIERS]</t>
+  </si>
 </sst>
 </file>
 
@@ -1768,7 +1774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1913,6 +1919,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1959,7 +1980,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2351,6 +2372,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -53544,7 +53577,7 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja32"/>
-  <dimension ref="A1:AX137"/>
+  <dimension ref="A1:AX131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -53559,8 +53592,9 @@
     <col min="18" max="18" width="11.42578125" style="39" customWidth="1"/>
     <col min="19" max="20" width="11.42578125" style="39"/>
     <col min="21" max="21" width="11.42578125" style="97"/>
-    <col min="22" max="23" width="11.42578125" style="39"/>
-    <col min="24" max="24" width="40" style="97" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="39" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="39"/>
+    <col min="24" max="24" width="12.85546875" style="97" customWidth="1"/>
     <col min="25" max="25" width="12.140625" style="97" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" style="39"/>
     <col min="51" max="16384" width="11.42578125" style="39"/>
@@ -53780,563 +53814,239 @@
       <c r="AW3"/>
       <c r="AX3"/>
     </row>
-    <row r="4" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="99">
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="154">
         <v>1</v>
       </c>
-      <c r="V4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="V4" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="111" t="s">
         <v>348</v>
       </c>
-      <c r="X4" s="99" t="s">
+      <c r="X4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
-      <c r="AV4"/>
-      <c r="AW4"/>
-      <c r="AX4"/>
-    </row>
-    <row r="5" spans="1:50" s="97" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="U5" s="99">
-        <v>1</v>
-      </c>
-      <c r="V5" s="28" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="T5" s="153" t="s">
+        <v>441</v>
+      </c>
+      <c r="U5" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="W5" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5"/>
-      <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
-      <c r="AV5"/>
-      <c r="AW5"/>
-      <c r="AX5"/>
-    </row>
-    <row r="6" spans="1:50" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="28" t="s">
+      <c r="W5" s="149" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" s="156" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="149"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-    </row>
-    <row r="7" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="49">
-        <v>1</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="138" t="s">
-        <v>390</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="133"/>
-    </row>
-    <row r="8" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="T8" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="U8" s="49">
-        <v>1</v>
-      </c>
-      <c r="V8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-    </row>
-    <row r="9" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="138" t="s">
-        <v>396</v>
-      </c>
-      <c r="X9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="133"/>
-    </row>
-    <row r="10" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="T10" s="116" t="s">
-        <v>367</v>
-      </c>
-      <c r="U10" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-    </row>
-    <row r="11" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="V11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-    </row>
-    <row r="12" spans="1:50" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-    </row>
-    <row r="13" spans="1:50" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="154"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="154"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="149"/>
+    </row>
+    <row r="7" spans="1:50" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="X14" s="39"/>
@@ -54351,26 +54061,32 @@
       <c r="Y16" s="39"/>
     </row>
     <row r="17" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
     </row>
     <row r="18" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
     </row>
     <row r="19" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
     </row>
     <row r="20" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
     </row>
     <row r="21" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
     </row>
     <row r="22" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
     </row>
@@ -54919,40 +54635,7 @@
       <c r="X131" s="39"/>
       <c r="Y131" s="39"/>
     </row>
-    <row r="132" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U132" s="39"/>
-      <c r="X132" s="39"/>
-      <c r="Y132" s="39"/>
-    </row>
-    <row r="133" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U133" s="39"/>
-      <c r="X133" s="39"/>
-      <c r="Y133" s="39"/>
-    </row>
-    <row r="134" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U134" s="39"/>
-      <c r="X134" s="39"/>
-      <c r="Y134" s="39"/>
-    </row>
-    <row r="135" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U135" s="39"/>
-      <c r="X135" s="39"/>
-      <c r="Y135" s="39"/>
-    </row>
-    <row r="136" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U136" s="39"/>
-      <c r="X136" s="39"/>
-      <c r="Y136" s="39"/>
-    </row>
-    <row r="137" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U137" s="39"/>
-      <c r="X137" s="39"/>
-      <c r="Y137" s="39"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="T10" r:id="rId1" display="http://public_site/repository/evidences/evidence?id=EVIDENCE-00001"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.1.0.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CriteriaTaxonomy-REGULATED-V2.1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12840" tabRatio="588" firstSheet="29" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11279" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11280" uniqueCount="442">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -4554,7 +4554,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54645,7 +54645,7 @@
   <sheetPr codeName="Hoja34"/>
   <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -55092,7 +55092,9 @@
       <c r="R7" s="96"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="99" t="s">
+        <v>13</v>
+      </c>
       <c r="V7" s="28"/>
       <c r="W7" s="100" t="s">
         <v>417</v>
@@ -55154,7 +55156,9 @@
         <v>35</v>
       </c>
       <c r="T8" s="28"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="99">
+        <v>1</v>
+      </c>
       <c r="V8" s="100" t="s">
         <v>29</v>
       </c>
